--- a/public/templates/import_rooms.xlsx
+++ b/public/templates/import_rooms.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cuong/Documents/BRAFO/brafo-web/public/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01BA15D-CA8D-694B-AA0D-000676AE474B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A0E897-38FE-3542-8BE4-9473353C39A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12920" yWindow="1700" windowWidth="19820" windowHeight="17480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12920" yWindow="1700" windowWidth="19820" windowHeight="17480" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="roomI2" sheetId="1" r:id="rId1"/>
+    <sheet name="roomC2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>Khoa Kỹ thuật - Công nghệ</t>
   </si>
@@ -127,13 +128,73 @@
   </si>
   <si>
     <t>Phòng Công tác sinh viên - Đoàn tầng trệt dãy I2</t>
+  </si>
+  <si>
+    <t>C2.101</t>
+  </si>
+  <si>
+    <t>C2.102</t>
+  </si>
+  <si>
+    <t>C2.103</t>
+  </si>
+  <si>
+    <t>C2.104</t>
+  </si>
+  <si>
+    <t>C2.105</t>
+  </si>
+  <si>
+    <t>C2.201</t>
+  </si>
+  <si>
+    <t>C2.202</t>
+  </si>
+  <si>
+    <t>C2.203</t>
+  </si>
+  <si>
+    <t>C2.204</t>
+  </si>
+  <si>
+    <t>C2.205</t>
+  </si>
+  <si>
+    <t>Phòng C2.101 tầng trệt dãy C2</t>
+  </si>
+  <si>
+    <t>Phòng C2.102 tầng trệt dãy C2</t>
+  </si>
+  <si>
+    <t>Phòng C2.103 tầng trệt dãy C3</t>
+  </si>
+  <si>
+    <t>Phòng C2.104 tầng trệt dãy C4</t>
+  </si>
+  <si>
+    <t>Phòng C2.105 tầng trệt dãy C5</t>
+  </si>
+  <si>
+    <t>Phòng C2.201 tầng trệt dãy C2</t>
+  </si>
+  <si>
+    <t>Phòng C2.202 tầng trệt dãy C2</t>
+  </si>
+  <si>
+    <t>Phòng C2.203 tầng trệt dãy C2</t>
+  </si>
+  <si>
+    <t>Phòng C2.204 tầng trệt dãy C2</t>
+  </si>
+  <si>
+    <t>Phòng C2.205 tầng trệt dãy C2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -143,6 +204,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -168,8 +236,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView zoomScale="162" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -642,4 +711,103 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238D1C87-52A3-C840-AA08-F2B15C4EF256}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>